--- a/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.748971046376312</v>
+        <v>0.8278957830500815</v>
       </c>
       <c r="C2">
-        <v>0.3614721840720847</v>
+        <v>0.1147174882927544</v>
       </c>
       <c r="D2">
-        <v>0.03874692770112631</v>
+        <v>0.05954275402786635</v>
       </c>
       <c r="E2">
-        <v>0.2455774181668602</v>
+        <v>0.3384078188942752</v>
       </c>
       <c r="F2">
-        <v>2.113510266889122</v>
+        <v>0.597610770744808</v>
       </c>
       <c r="G2">
-        <v>0.0007902828935247941</v>
+        <v>0.0008071134223359476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4657663611123581</v>
+        <v>0.8466381295875181</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8106445947029783</v>
+        <v>0.5817626277727328</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.702653930199531</v>
+        <v>1.818760142501134</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.507972617243837</v>
+        <v>0.7199498728073763</v>
       </c>
       <c r="C3">
-        <v>0.3139572922883929</v>
+        <v>0.1054672529855196</v>
       </c>
       <c r="D3">
-        <v>0.03907799135471279</v>
+        <v>0.05490692539266462</v>
       </c>
       <c r="E3">
-        <v>0.2129963992452275</v>
+        <v>0.2945980340298959</v>
       </c>
       <c r="F3">
-        <v>1.893971578556673</v>
+        <v>0.567045015656106</v>
       </c>
       <c r="G3">
-        <v>0.0007981191473038773</v>
+        <v>0.0008111530264326669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4016653031055881</v>
+        <v>0.7404209899169416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6979511592858998</v>
+        <v>0.5033099853064726</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.533516868739937</v>
+        <v>1.767379016304091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.361975378378702</v>
+        <v>0.6538167775887587</v>
       </c>
       <c r="C4">
-        <v>0.2850980177965425</v>
+        <v>0.09977790817188037</v>
       </c>
       <c r="D4">
-        <v>0.03932087030751674</v>
+        <v>0.05204635697841553</v>
       </c>
       <c r="E4">
-        <v>0.1934989922969166</v>
+        <v>0.2682209325699958</v>
       </c>
       <c r="F4">
-        <v>1.763099368208174</v>
+        <v>0.5494481387722274</v>
       </c>
       <c r="G4">
-        <v>0.0008030527109928184</v>
+        <v>0.0008137124746559572</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3628063331982361</v>
+        <v>0.6752581035460139</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6299679704544872</v>
+        <v>0.455568725459031</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.432868983126127</v>
+        <v>1.739655832588994</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30290110787945</v>
+        <v>0.6268921772439739</v>
       </c>
       <c r="C5">
-        <v>0.2734010206278583</v>
+        <v>0.09745625991970996</v>
       </c>
       <c r="D5">
-        <v>0.03942884296853322</v>
+        <v>0.05087690928445454</v>
       </c>
       <c r="E5">
-        <v>0.1856646348022224</v>
+        <v>0.2575890907582377</v>
       </c>
       <c r="F5">
-        <v>1.710648382680063</v>
+        <v>0.5425552758308925</v>
       </c>
       <c r="G5">
-        <v>0.0008050954326922488</v>
+        <v>0.0008147757778286132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3470760634711851</v>
+        <v>0.6487068013700252</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6025248741425742</v>
+        <v>0.4362059621036778</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.392573539961489</v>
+        <v>1.729270981675285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.293115177516597</v>
+        <v>0.6224225631470404</v>
       </c>
       <c r="C6">
-        <v>0.271462135811646</v>
+        <v>0.09707053781151131</v>
       </c>
       <c r="D6">
-        <v>0.03944728886484228</v>
+        <v>0.05068249223860022</v>
       </c>
       <c r="E6">
-        <v>0.1843699913574781</v>
+        <v>0.2558303490756089</v>
       </c>
       <c r="F6">
-        <v>1.701989164509726</v>
+        <v>0.5414270500982283</v>
       </c>
       <c r="G6">
-        <v>0.0008054366163745352</v>
+        <v>0.000814953576676215</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.344469844956194</v>
+        <v>0.6442978653386007</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5979824967293368</v>
+        <v>0.432995917095738</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.385923579304901</v>
+        <v>1.727600311268418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.361177074459988</v>
+        <v>0.6534535758845266</v>
       </c>
       <c r="C7">
-        <v>0.284940031228885</v>
+        <v>0.09974661151390052</v>
       </c>
       <c r="D7">
-        <v>0.03932229123512698</v>
+        <v>0.0520306007849598</v>
       </c>
       <c r="E7">
-        <v>0.1933929068979268</v>
+        <v>0.2680770921989293</v>
       </c>
       <c r="F7">
-        <v>1.762388565317167</v>
+        <v>0.549354074564441</v>
       </c>
       <c r="G7">
-        <v>0.0008030801273484217</v>
+        <v>0.0008137267320591403</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3625937896269065</v>
+        <v>0.6749000244910235</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6295968633655775</v>
+        <v>0.4553072392497555</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.432322740504318</v>
+        <v>1.73951214708751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.665416434294457</v>
+        <v>0.7906384915085312</v>
       </c>
       <c r="C8">
-        <v>0.3450136569357198</v>
+        <v>0.111529532600926</v>
       </c>
       <c r="D8">
-        <v>0.0388522488979568</v>
+        <v>0.05794714010466606</v>
       </c>
       <c r="E8">
-        <v>0.2342276760688904</v>
+        <v>0.3231849181123607</v>
       </c>
       <c r="F8">
-        <v>2.036931595953021</v>
+        <v>0.586818614876357</v>
       </c>
       <c r="G8">
-        <v>0.0007929604758466128</v>
+        <v>0.0008084901127317525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4435477606575731</v>
+        <v>0.8099963985846443</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7715088520485693</v>
+        <v>0.5546133674166427</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.643616607916755</v>
+        <v>1.80021954986907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.281553565958973</v>
+        <v>1.061387221703797</v>
       </c>
       <c r="C9">
-        <v>0.4661191577588966</v>
+        <v>0.1345975957967624</v>
       </c>
       <c r="D9">
-        <v>0.0382937433496906</v>
+        <v>0.06944683902326432</v>
       </c>
       <c r="E9">
-        <v>0.31916896479472</v>
+        <v>0.4360906919775402</v>
       </c>
       <c r="F9">
-        <v>2.611786076577488</v>
+        <v>0.6703607095404607</v>
       </c>
       <c r="G9">
-        <v>0.0007740067812639722</v>
+        <v>0.0007988290315800329</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6072928569114993</v>
+        <v>1.075884069811622</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.061620162902862</v>
+        <v>0.7535213052357079</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.087680232827637</v>
+        <v>1.951982837065799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.752172942478865</v>
+        <v>1.262227650117524</v>
       </c>
       <c r="C10">
-        <v>0.5583772831347176</v>
+        <v>0.1515820838472877</v>
       </c>
       <c r="D10">
-        <v>0.03818345270778067</v>
+        <v>0.07784855590656292</v>
       </c>
       <c r="E10">
-        <v>0.3858650497182552</v>
+        <v>0.5230426596093167</v>
       </c>
       <c r="F10">
-        <v>3.064707255068868</v>
+        <v>0.7390504923409651</v>
       </c>
       <c r="G10">
-        <v>0.0007605035461096655</v>
+        <v>0.0007920721803243281</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.732268198523407</v>
+        <v>1.272626510370742</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.285462876468543</v>
+        <v>0.9033569910915844</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.438785203066345</v>
+        <v>2.086950602113461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.971731962961996</v>
+        <v>1.354222165280191</v>
       </c>
       <c r="C11">
-        <v>0.6013928439840583</v>
+        <v>0.1593313779272307</v>
       </c>
       <c r="D11">
-        <v>0.03821956244414437</v>
+        <v>0.0816643068745222</v>
       </c>
       <c r="E11">
-        <v>0.4174852909744402</v>
+        <v>0.5637245063543119</v>
       </c>
       <c r="F11">
-        <v>3.279546000426564</v>
+        <v>0.7721677993737188</v>
       </c>
       <c r="G11">
-        <v>0.0007544211378918318</v>
+        <v>0.0007890653939344433</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7905598766641617</v>
+        <v>1.362628526726496</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.390527750504432</v>
+        <v>0.9726055590064036</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.605649648813511</v>
+        <v>2.154294523835489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.055811188318444</v>
+        <v>1.389167477083532</v>
       </c>
       <c r="C12">
-        <v>0.6178646189581798</v>
+        <v>0.1622704530850712</v>
       </c>
       <c r="D12">
-        <v>0.03824776549279107</v>
+        <v>0.08310866765764047</v>
       </c>
       <c r="E12">
-        <v>0.4296770225979216</v>
+        <v>0.5793151570481214</v>
       </c>
       <c r="F12">
-        <v>3.362373571637193</v>
+        <v>0.7850026881966841</v>
       </c>
       <c r="G12">
-        <v>0.0007521235780236465</v>
+        <v>0.0007879358100111204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.812881330684057</v>
+        <v>1.396799671444768</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.430867087999388</v>
+        <v>0.9990100413151808</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.670032607480039</v>
+        <v>2.180727772139477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.037658936387174</v>
+        <v>1.381636225795233</v>
       </c>
       <c r="C13">
-        <v>0.6143084385785755</v>
+        <v>0.1616372450130967</v>
       </c>
       <c r="D13">
-        <v>0.03824100773014649</v>
+        <v>0.08279761925602003</v>
       </c>
       <c r="E13">
-        <v>0.4270410353618388</v>
+        <v>0.5759487962456191</v>
       </c>
       <c r="F13">
-        <v>3.344466068529641</v>
+        <v>0.78222496358093</v>
       </c>
       <c r="G13">
-        <v>0.0007526181956953376</v>
+        <v>0.0007881786950756011</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.808062283503574</v>
+        <v>1.389436044694861</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.422153134629639</v>
+        <v>0.9933148647413077</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.65611052074253</v>
+        <v>2.174992183819569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978629498998089</v>
+        <v>1.357094843250707</v>
       </c>
       <c r="C14">
-        <v>0.6027441239939151</v>
+        <v>0.1595730777344073</v>
       </c>
       <c r="D14">
-        <v>0.03822157814356686</v>
+        <v>0.08178314505099138</v>
       </c>
       <c r="E14">
-        <v>0.4184837351334281</v>
+        <v>0.5650033037235289</v>
       </c>
       <c r="F14">
-        <v>3.286329470976597</v>
+        <v>0.7732176882333164</v>
       </c>
       <c r="G14">
-        <v>0.0007542320199837119</v>
+        <v>0.0007889722852770974</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7923910597302921</v>
+        <v>1.365437914451547</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.393834849456297</v>
+        <v>0.9747740811064034</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.610921481825912</v>
+        <v>2.156450073146175</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.942599094878915</v>
+        <v>1.342077296847208</v>
       </c>
       <c r="C15">
-        <v>0.595685476448125</v>
+        <v>0.1583093529581561</v>
       </c>
       <c r="D15">
-        <v>0.03821163796351712</v>
+        <v>0.08116168443390848</v>
       </c>
       <c r="E15">
-        <v>0.413271596929718</v>
+        <v>0.5583237338090967</v>
       </c>
       <c r="F15">
-        <v>3.25091755145047</v>
+        <v>0.7677395514107701</v>
       </c>
       <c r="G15">
-        <v>0.0007552211840728273</v>
+        <v>0.0007894595382460059</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7828255372300106</v>
+        <v>1.350750529872613</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.376563994481941</v>
+        <v>0.9634417434544318</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.58340288046432</v>
+        <v>2.145216186738708</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.737946729645842</v>
+        <v>1.256229817879614</v>
       </c>
       <c r="C16">
-        <v>0.5555898284486602</v>
+        <v>0.1510762184299494</v>
       </c>
       <c r="D16">
-        <v>0.03818300276794417</v>
+        <v>0.07759908848034769</v>
       </c>
       <c r="E16">
-        <v>0.3838271256497165</v>
+        <v>0.5204086238848333</v>
       </c>
       <c r="F16">
-        <v>3.050861239292288</v>
+        <v>0.7369259356303957</v>
       </c>
       <c r="G16">
-        <v>0.0007609020152158</v>
+        <v>0.0007922699771948803</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7284910195121554</v>
+        <v>1.266756209596622</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.278669033806594</v>
+        <v>0.8988554206674166</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.428037811466638</v>
+        <v>2.082675575939192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.613901229115868</v>
+        <v>1.20373934449853</v>
       </c>
       <c r="C17">
-        <v>0.5312820729905354</v>
+        <v>0.1466456834677814</v>
       </c>
       <c r="D17">
-        <v>0.03818894052870547</v>
+        <v>0.0754121703398738</v>
       </c>
       <c r="E17">
-        <v>0.366114255422346</v>
+        <v>0.4974534790246494</v>
       </c>
       <c r="F17">
-        <v>2.930526534301492</v>
+        <v>0.7185190386592666</v>
       </c>
       <c r="G17">
-        <v>0.0007644004787978739</v>
+        <v>0.0007940108183660591</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6955545153505867</v>
+        <v>1.215368892741026</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.219501731235454</v>
+        <v>0.8595295852034823</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.334668713344072</v>
+        <v>2.045884492782477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.543058482680067</v>
+        <v>1.173606448980252</v>
       </c>
       <c r="C18">
-        <v>0.5173972568142347</v>
+        <v>0.1440994350002285</v>
       </c>
       <c r="D18">
-        <v>0.03820033160729963</v>
+        <v>0.07415370577228941</v>
       </c>
       <c r="E18">
-        <v>0.3560444605499882</v>
+        <v>0.4843548506533608</v>
       </c>
       <c r="F18">
-        <v>2.862127836589991</v>
+        <v>0.7081062707690222</v>
       </c>
       <c r="G18">
-        <v>0.0007664185743815469</v>
+        <v>0.0007950184435179541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6767430917102288</v>
+        <v>1.18585850271208</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.185769075351416</v>
+        <v>0.8370111414352905</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.2816265408958</v>
+        <v>2.025278015266991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.519154819067467</v>
+        <v>1.163413438864183</v>
       </c>
       <c r="C19">
-        <v>0.5127117391589024</v>
+        <v>0.1432376387060401</v>
       </c>
       <c r="D19">
-        <v>0.03820549904560977</v>
+        <v>0.07372749788277844</v>
       </c>
       <c r="E19">
-        <v>0.3526543461386495</v>
+        <v>0.4799371638147534</v>
       </c>
       <c r="F19">
-        <v>2.839103262175342</v>
+        <v>0.7046099026791808</v>
       </c>
       <c r="G19">
-        <v>0.0007671029591375903</v>
+        <v>0.0007953607145718172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6703955230254763</v>
+        <v>1.175874236645853</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.174396613919143</v>
+        <v>0.8294033531184866</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.263776198375268</v>
+        <v>2.01839406723397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.62705280101892</v>
+        <v>1.209320890394025</v>
       </c>
       <c r="C20">
-        <v>0.5338594833068839</v>
+        <v>0.147117097480276</v>
       </c>
       <c r="D20">
-        <v>0.03818746867908374</v>
+        <v>0.07564503214949525</v>
       </c>
       <c r="E20">
-        <v>0.3679873601106607</v>
+        <v>0.4998861095256473</v>
       </c>
       <c r="F20">
-        <v>2.943250644722355</v>
+        <v>0.7204602590905012</v>
       </c>
       <c r="G20">
-        <v>0.0007640274738456365</v>
+        <v>0.0007938248510203007</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6990466432270779</v>
+        <v>1.220834256293074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.225768667257384</v>
+        <v>0.8637052862643841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.344538432309861</v>
+        <v>2.049743013916753</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.995941146589416</v>
+        <v>1.36430013180717</v>
       </c>
       <c r="C21">
-        <v>0.6061356050336713</v>
+        <v>0.1601792384323915</v>
       </c>
       <c r="D21">
-        <v>0.03822687212403153</v>
+        <v>0.08208113384225157</v>
       </c>
       <c r="E21">
-        <v>0.4209910157503742</v>
+        <v>0.5682130347995624</v>
       </c>
       <c r="F21">
-        <v>3.303363837299685</v>
+        <v>0.7758551514713048</v>
       </c>
       <c r="G21">
-        <v>0.0007537578710122955</v>
+        <v>0.0007887389488070863</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7969870046501697</v>
+        <v>1.372484179856286</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.402136829555204</v>
+        <v>0.98021481994585</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.624160715728891</v>
+        <v>2.161870418043492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.242577781782813</v>
+        <v>1.466232817152445</v>
       </c>
       <c r="C22">
-        <v>0.6544556924117728</v>
+        <v>0.1687435137591535</v>
       </c>
       <c r="D22">
-        <v>0.03833856088742849</v>
+        <v>0.08628427689917828</v>
       </c>
       <c r="E22">
-        <v>0.4569211015519699</v>
+        <v>0.6139611680417403</v>
       </c>
       <c r="F22">
-        <v>3.547420637169409</v>
+        <v>0.8137862041267425</v>
       </c>
       <c r="G22">
-        <v>0.0007470777409488449</v>
+        <v>0.0007854672847078489</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8624633778683446</v>
+        <v>1.472125817430253</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.520680441540918</v>
+        <v>1.057432063318139</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.813970639654727</v>
+        <v>2.240622059777991</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.110380448164165</v>
+        <v>1.411764014059798</v>
       </c>
       <c r="C23">
-        <v>0.6285553243069444</v>
+        <v>0.1641696353952966</v>
       </c>
       <c r="D23">
-        <v>0.03827029167294782</v>
+        <v>0.08404116359822922</v>
       </c>
       <c r="E23">
-        <v>0.437614076145266</v>
+        <v>0.589436311192145</v>
       </c>
       <c r="F23">
-        <v>3.416290673258061</v>
+        <v>0.793374794090056</v>
       </c>
       <c r="G23">
-        <v>0.0007506412386127753</v>
+        <v>0.0007872088626359772</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8273682515364555</v>
+        <v>1.418890739532799</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.457079198840304</v>
+        <v>1.016112823591058</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.711957888758434</v>
+        <v>2.19806342928365</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.621105514193516</v>
+        <v>1.20679733600727</v>
       </c>
       <c r="C24">
-        <v>0.5326939580291992</v>
+        <v>0.1469039684189113</v>
       </c>
       <c r="D24">
-        <v>0.03818810941065465</v>
+        <v>0.07553975901235077</v>
       </c>
       <c r="E24">
-        <v>0.3671401782226269</v>
+        <v>0.4987860119225829</v>
       </c>
       <c r="F24">
-        <v>2.937495649790634</v>
+        <v>0.7195821069404076</v>
       </c>
       <c r="G24">
-        <v>0.0007641960880987733</v>
+        <v>0.0007939089056580744</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6974674683190898</v>
+        <v>1.218363264339843</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.222934509190836</v>
+        <v>0.8618171717939802</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.340074360726007</v>
+        <v>2.047996884025338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.112200800007031</v>
+        <v>0.9878716654458799</v>
       </c>
       <c r="C25">
-        <v>0.432881865858036</v>
+        <v>0.1283553079815363</v>
       </c>
       <c r="D25">
-        <v>0.03839849845953225</v>
+        <v>0.06634533606033699</v>
       </c>
       <c r="E25">
-        <v>0.2955424797878123</v>
+        <v>0.4049253025596187</v>
       </c>
       <c r="F25">
-        <v>2.451564321303266</v>
+        <v>0.6465659758462721</v>
       </c>
       <c r="G25">
-        <v>0.0007790505769690747</v>
+        <v>0.0008013804602262061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5623043991066297</v>
+        <v>1.003771525381126</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9815366672333923</v>
+        <v>0.6991511189876789</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.963719236416807</v>
+        <v>1.90707583154321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8278957830500815</v>
+        <v>0.7951006458486631</v>
       </c>
       <c r="C2">
-        <v>0.1147174882927544</v>
+        <v>0.1849906104723971</v>
       </c>
       <c r="D2">
-        <v>0.05954275402786635</v>
+        <v>0.08383341459680338</v>
       </c>
       <c r="E2">
-        <v>0.3384078188942752</v>
+        <v>0.3356542410775134</v>
       </c>
       <c r="F2">
-        <v>0.597610770744808</v>
+        <v>0.3552017312941516</v>
       </c>
       <c r="G2">
-        <v>0.0008071134223359476</v>
+        <v>0.2533349392593749</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0006545001659570282</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2469579734509466</v>
       </c>
       <c r="K2">
-        <v>0.8466381295875181</v>
+        <v>0.2331568403040976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5817626277727328</v>
+        <v>0.9074069647303986</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.818760142501134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5945944915523498</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.002649707451695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7199498728073763</v>
+        <v>0.6959489579242586</v>
       </c>
       <c r="C3">
-        <v>0.1054672529855196</v>
+        <v>0.1684938997474035</v>
       </c>
       <c r="D3">
-        <v>0.05490692539266462</v>
+        <v>0.07454193803137343</v>
       </c>
       <c r="E3">
-        <v>0.2945980340298959</v>
+        <v>0.2929068301689597</v>
       </c>
       <c r="F3">
-        <v>0.567045015656106</v>
+        <v>0.3408656573166766</v>
       </c>
       <c r="G3">
-        <v>0.0008111530264326669</v>
+        <v>0.2475585504361462</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004234758887950996</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2490884596697995</v>
       </c>
       <c r="K3">
-        <v>0.7404209899169416</v>
+        <v>0.2383954735696534</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5033099853064726</v>
+        <v>0.8000578946625296</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.767379016304091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5154881669752172</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9945645573257309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6538167775887587</v>
+        <v>0.6348216879124209</v>
       </c>
       <c r="C4">
-        <v>0.09977790817188037</v>
+        <v>0.1584778716119786</v>
       </c>
       <c r="D4">
-        <v>0.05204635697841553</v>
+        <v>0.06884335213133141</v>
       </c>
       <c r="E4">
-        <v>0.2682209325699958</v>
+        <v>0.2671415061771683</v>
       </c>
       <c r="F4">
-        <v>0.5494481387722274</v>
+        <v>0.3325547994933018</v>
       </c>
       <c r="G4">
-        <v>0.0008137124746559572</v>
+        <v>0.2444338093725733</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004500974175525307</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2506874192682602</v>
       </c>
       <c r="K4">
-        <v>0.6752581035460139</v>
+        <v>0.2418920899163837</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.455568725459031</v>
+        <v>0.7341312962923467</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.739655832588994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4672078009139184</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9910961069436866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6268921772439739</v>
+        <v>0.6095274917491338</v>
       </c>
       <c r="C5">
-        <v>0.09745625991970996</v>
+        <v>0.1547765859879036</v>
       </c>
       <c r="D5">
-        <v>0.05087690928445454</v>
+        <v>0.06658875043848411</v>
       </c>
       <c r="E5">
-        <v>0.2575890907582377</v>
+        <v>0.2567061098179835</v>
       </c>
       <c r="F5">
-        <v>0.5425552758308925</v>
+        <v>0.3289287468345279</v>
       </c>
       <c r="G5">
-        <v>0.0008147757778286132</v>
+        <v>0.2429248501715975</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005673000882153723</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2512323268571564</v>
       </c>
       <c r="K5">
-        <v>0.6487068013700252</v>
+        <v>0.2431131082750113</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4362059621036778</v>
+        <v>0.7075802977861088</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.729270981675285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.447670756368538</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9889576501345374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6224225631470404</v>
+        <v>0.6049323005929352</v>
       </c>
       <c r="C6">
-        <v>0.09707053781151131</v>
+        <v>0.1545995242143334</v>
       </c>
       <c r="D6">
-        <v>0.05068249223860022</v>
+        <v>0.06629606147701139</v>
       </c>
       <c r="E6">
-        <v>0.2558303490756089</v>
+        <v>0.2549247636681926</v>
       </c>
       <c r="F6">
-        <v>0.5414270500982283</v>
+        <v>0.3278970863904647</v>
       </c>
       <c r="G6">
-        <v>0.000814953576676215</v>
+        <v>0.2422691161236017</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.000677457686861338</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.251109984616626</v>
       </c>
       <c r="K6">
-        <v>0.6442978653386007</v>
+        <v>0.2429879606725702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.432995917095738</v>
+        <v>0.7035677440080121</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.727600311268418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4445224848914506</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9872975740118335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6534535758845266</v>
+        <v>0.6334091018622701</v>
       </c>
       <c r="C7">
-        <v>0.09974661151390052</v>
+        <v>0.1596217629150942</v>
       </c>
       <c r="D7">
-        <v>0.0520306007849598</v>
+        <v>0.0690366911121032</v>
       </c>
       <c r="E7">
-        <v>0.2680770921989293</v>
+        <v>0.2668505070168763</v>
       </c>
       <c r="F7">
-        <v>0.549354074564441</v>
+        <v>0.3313135562707004</v>
       </c>
       <c r="G7">
-        <v>0.0008137267320591403</v>
+        <v>0.2432907942667839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006774602262877849</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2501030192638609</v>
       </c>
       <c r="K7">
-        <v>0.6749000244910235</v>
+        <v>0.241003352582613</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4553072392497555</v>
+        <v>0.7348617423707822</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.73951214708751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4671966374540233</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9874474786391403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7906384915085312</v>
+        <v>0.7595308841664803</v>
       </c>
       <c r="C8">
-        <v>0.111529532600926</v>
+        <v>0.1808764033725225</v>
       </c>
       <c r="D8">
-        <v>0.05794714010466606</v>
+        <v>0.08092767848211224</v>
       </c>
       <c r="E8">
-        <v>0.3231849181123607</v>
+        <v>0.3206082533782677</v>
       </c>
       <c r="F8">
-        <v>0.586818614876357</v>
+        <v>0.3485788806039807</v>
       </c>
       <c r="G8">
-        <v>0.0008084901127317525</v>
+        <v>0.2497724974582383</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0008082265953097689</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2468549036196777</v>
       </c>
       <c r="K8">
-        <v>0.8099963985846443</v>
+        <v>0.2337175672267691</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5546133674166427</v>
+        <v>0.8718515712772614</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.80021954986907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5675862637907727</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9947789140016994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.061387221703797</v>
+        <v>1.006965966648693</v>
       </c>
       <c r="C9">
-        <v>0.1345975957967624</v>
+        <v>0.2214258333842167</v>
       </c>
       <c r="D9">
-        <v>0.06944683902326432</v>
+        <v>0.1039194322711765</v>
       </c>
       <c r="E9">
-        <v>0.4360906919775402</v>
+        <v>0.4307058152339422</v>
       </c>
       <c r="F9">
-        <v>0.6703607095404607</v>
+        <v>0.3887455283950771</v>
       </c>
       <c r="G9">
-        <v>0.0007988290315800329</v>
+        <v>0.2680819305866535</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002169251867615962</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2439443854027061</v>
       </c>
       <c r="K9">
-        <v>1.075884069811622</v>
+        <v>0.2233574612451825</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7535213052357079</v>
+        <v>1.138690781378244</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.951982837065799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7668454419948674</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.028208484915865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.262227650117524</v>
+        <v>1.187311749825739</v>
       </c>
       <c r="C10">
-        <v>0.1515820838472877</v>
+        <v>0.25268101495287</v>
       </c>
       <c r="D10">
-        <v>0.07784855590656292</v>
+        <v>0.1210201456416939</v>
       </c>
       <c r="E10">
-        <v>0.5230426596093167</v>
+        <v>0.515080219251864</v>
       </c>
       <c r="F10">
-        <v>0.7390504923409651</v>
+        <v>0.4206336676592173</v>
       </c>
       <c r="G10">
-        <v>0.0007920721803243281</v>
+        <v>0.2835489653549672</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004317489118814244</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2431466710189625</v>
       </c>
       <c r="K10">
-        <v>1.272626510370742</v>
+        <v>0.2168874956350173</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9033569910915844</v>
+        <v>1.335866620172396</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.086950602113461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9159097268868663</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.059812428461484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.354222165280191</v>
+        <v>1.267397509440002</v>
       </c>
       <c r="C11">
-        <v>0.1593313779272307</v>
+        <v>0.2691985085122326</v>
       </c>
       <c r="D11">
-        <v>0.0816643068745222</v>
+        <v>0.1292140548962948</v>
       </c>
       <c r="E11">
-        <v>0.5637245063543119</v>
+        <v>0.5541962010754204</v>
       </c>
       <c r="F11">
-        <v>0.7721677993737188</v>
+        <v>0.433953138286121</v>
       </c>
       <c r="G11">
-        <v>0.0007890653939344433</v>
+        <v>0.2894278864794373</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.005908163196565397</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2422416012382484</v>
       </c>
       <c r="K11">
-        <v>1.362628526726496</v>
+        <v>0.2129107994297783</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9726055590064036</v>
+        <v>1.427668797216342</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.154294523835489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9848816458945109</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.070593276007472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389167477083532</v>
+        <v>1.298670957876823</v>
       </c>
       <c r="C12">
-        <v>0.1622704530850712</v>
+        <v>0.2744005921018129</v>
       </c>
       <c r="D12">
-        <v>0.08310866765764047</v>
+        <v>0.1321193385688844</v>
       </c>
       <c r="E12">
-        <v>0.5793151570481214</v>
+        <v>0.569301208224843</v>
       </c>
       <c r="F12">
-        <v>0.7850026881966841</v>
+        <v>0.4401391462812256</v>
       </c>
       <c r="G12">
-        <v>0.0007879358100111204</v>
+        <v>0.2927148336010532</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006367107409929851</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2424560632552826</v>
       </c>
       <c r="K12">
-        <v>1.396799671444768</v>
+        <v>0.2122182258395284</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9990100413151808</v>
+        <v>1.461486737418397</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.180727772139477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.010903555839924</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.078090228490311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.381636225795233</v>
+        <v>1.292130412550847</v>
       </c>
       <c r="C13">
-        <v>0.1616372450130967</v>
+        <v>0.2730574620834716</v>
       </c>
       <c r="D13">
-        <v>0.08279761925602003</v>
+        <v>0.1314523811904991</v>
       </c>
       <c r="E13">
-        <v>0.5759487962456191</v>
+        <v>0.566067399047931</v>
       </c>
       <c r="F13">
-        <v>0.78222496358093</v>
+        <v>0.4390078806055868</v>
       </c>
       <c r="G13">
-        <v>0.0007881786950756011</v>
+        <v>0.292195003087663</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006226595417036407</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2425069306720857</v>
       </c>
       <c r="K13">
-        <v>1.389436044694861</v>
+        <v>0.2125157979781633</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9933148647413077</v>
+        <v>1.454001652999182</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.174992183819569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.005249139807361</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.077077621070273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.357094843250707</v>
+        <v>1.270053082607973</v>
       </c>
       <c r="C14">
-        <v>0.1595730777344073</v>
+        <v>0.2695318490898444</v>
       </c>
       <c r="D14">
-        <v>0.08178314505099138</v>
+        <v>0.1294355561509661</v>
       </c>
       <c r="E14">
-        <v>0.5650033037235289</v>
+        <v>0.555446938415507</v>
       </c>
       <c r="F14">
-        <v>0.7732176882333164</v>
+        <v>0.4345473360376317</v>
       </c>
       <c r="G14">
-        <v>0.0007889722852770974</v>
+        <v>0.2897781055167385</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005927859058125762</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2423004350112308</v>
       </c>
       <c r="K14">
-        <v>1.365437914451547</v>
+        <v>0.2129168338077037</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9747740811064034</v>
+        <v>1.430365321388592</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.156450073146175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9870010568134191</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.071465504548598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.342077296847208</v>
+        <v>1.256146580984648</v>
       </c>
       <c r="C15">
-        <v>0.1583093529581561</v>
+        <v>0.2678125486941383</v>
       </c>
       <c r="D15">
-        <v>0.08116168443390848</v>
+        <v>0.1282815580361927</v>
       </c>
       <c r="E15">
-        <v>0.5583237338090967</v>
+        <v>0.5489103994605173</v>
       </c>
       <c r="F15">
-        <v>0.7677395514107701</v>
+        <v>0.4314242640889674</v>
       </c>
       <c r="G15">
-        <v>0.0007894595382460059</v>
+        <v>0.2879316436442423</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005833014223771471</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2419851994975275</v>
       </c>
       <c r="K15">
-        <v>1.350750529872613</v>
+        <v>0.2128726375461021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9634417434544318</v>
+        <v>1.416286015540834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.145216186738708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9759276237709003</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.066856519159373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.256229817879614</v>
+        <v>1.178865534626254</v>
       </c>
       <c r="C16">
-        <v>0.1510762184299494</v>
+        <v>0.2552505614033436</v>
       </c>
       <c r="D16">
-        <v>0.07759908848034769</v>
+        <v>0.1211625210912786</v>
       </c>
       <c r="E16">
-        <v>0.5204086238848333</v>
+        <v>0.5121025837818749</v>
       </c>
       <c r="F16">
-        <v>0.7369259356303957</v>
+        <v>0.4163505525649143</v>
       </c>
       <c r="G16">
-        <v>0.0007922699771948803</v>
+        <v>0.2799728027372979</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004863907601848183</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2415512792028593</v>
       </c>
       <c r="K16">
-        <v>1.266756209596622</v>
+        <v>0.2146336883212747</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8988554206674166</v>
+        <v>1.333171506939919</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.082675575939192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9121549385545578</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.048875969335171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.20373934449853</v>
+        <v>1.131439826876743</v>
       </c>
       <c r="C17">
-        <v>0.1466456834677814</v>
+        <v>0.2475902186862413</v>
       </c>
       <c r="D17">
-        <v>0.0754121703398738</v>
+        <v>0.116800463024191</v>
       </c>
       <c r="E17">
-        <v>0.4974534790246494</v>
+        <v>0.4897890161771983</v>
       </c>
       <c r="F17">
-        <v>0.7185190386592666</v>
+        <v>0.4073142650670647</v>
       </c>
       <c r="G17">
-        <v>0.0007940108183660591</v>
+        <v>0.2752746039312512</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004345861635493442</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.241393876046871</v>
       </c>
       <c r="K17">
-        <v>1.215368892741026</v>
+        <v>0.215823804733116</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8595295852034823</v>
+        <v>1.282233909308985</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.045884492782477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8732322581341023</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.038462045773343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.173606448980252</v>
+        <v>1.105122527962436</v>
       </c>
       <c r="C18">
-        <v>0.1440994350002285</v>
+        <v>0.2420933231923925</v>
       </c>
       <c r="D18">
-        <v>0.07415370577228941</v>
+        <v>0.1140884646029576</v>
       </c>
       <c r="E18">
-        <v>0.4843548506533608</v>
+        <v>0.4771807272647663</v>
       </c>
       <c r="F18">
-        <v>0.7081062707690222</v>
+        <v>0.4032283488551158</v>
       </c>
       <c r="G18">
-        <v>0.0007950184435179541</v>
+        <v>0.2736064980790616</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003840882706104054</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2418458485062089</v>
       </c>
       <c r="K18">
-        <v>1.18585850271208</v>
+        <v>0.2173091372718865</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8370111414352905</v>
+        <v>1.25195519789213</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.025278015266991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8506898521327813</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.035800068770257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.163413438864183</v>
+        <v>1.095463486249287</v>
       </c>
       <c r="C19">
-        <v>0.1432376387060401</v>
+        <v>0.2410878547716209</v>
       </c>
       <c r="D19">
-        <v>0.07372749788277844</v>
+        <v>0.1133284272127355</v>
       </c>
       <c r="E19">
-        <v>0.4799371638147534</v>
+        <v>0.4728239025244463</v>
       </c>
       <c r="F19">
-        <v>0.7046099026791808</v>
+        <v>0.4010575902733748</v>
       </c>
       <c r="G19">
-        <v>0.0007953607145718172</v>
+        <v>0.2723050205004824</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003851506122186876</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2416169550814615</v>
       </c>
       <c r="K19">
-        <v>1.175874236645853</v>
+        <v>0.2172309432438908</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8294033531184866</v>
+        <v>1.242474620163534</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.01839406723397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8432407858684314</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.032537047062206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.209320890394025</v>
+        <v>1.136565189974846</v>
       </c>
       <c r="C20">
-        <v>0.147117097480276</v>
+        <v>0.2483169625290884</v>
       </c>
       <c r="D20">
-        <v>0.07564503214949525</v>
+        <v>0.1172485346387191</v>
       </c>
       <c r="E20">
-        <v>0.4998861095256473</v>
+        <v>0.4921651678610317</v>
       </c>
       <c r="F20">
-        <v>0.7204602590905012</v>
+        <v>0.408349732281593</v>
       </c>
       <c r="G20">
-        <v>0.0007938248510203007</v>
+        <v>0.2758439162621826</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00437959647579067</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2414460495649067</v>
       </c>
       <c r="K20">
-        <v>1.220834256293074</v>
+        <v>0.2157526764540734</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8637052862643841</v>
+        <v>1.287576255319323</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.049743013916753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8773509518471485</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.03979153535208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.36430013180717</v>
+        <v>1.275449879881592</v>
       </c>
       <c r="C21">
-        <v>0.1601792384323915</v>
+        <v>0.2718080134856962</v>
       </c>
       <c r="D21">
-        <v>0.08208113384225157</v>
+        <v>0.1302578384521098</v>
       </c>
       <c r="E21">
-        <v>0.5682130347995624</v>
+        <v>0.5584119442172195</v>
       </c>
       <c r="F21">
-        <v>0.7758551514713048</v>
+        <v>0.4346979190358908</v>
       </c>
       <c r="G21">
-        <v>0.0007887389488070863</v>
+        <v>0.2894053764432556</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00624999480094246</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2418002095215641</v>
       </c>
       <c r="K21">
-        <v>1.372484179856286</v>
+        <v>0.2119514798431759</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.98021481994585</v>
+        <v>1.438426950622556</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.161870418043492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9926062232459003</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.069644285573418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.466232817152445</v>
+        <v>1.367567126607298</v>
       </c>
       <c r="C22">
-        <v>0.1687435137591535</v>
+        <v>0.2857482209374922</v>
       </c>
       <c r="D22">
-        <v>0.08628427689917828</v>
+        <v>0.1384880634827397</v>
       </c>
       <c r="E22">
-        <v>0.6139611680417403</v>
+        <v>0.6028478728162696</v>
       </c>
       <c r="F22">
-        <v>0.8137862041267425</v>
+        <v>0.4541131283331552</v>
       </c>
       <c r="G22">
-        <v>0.0007854672847078489</v>
+        <v>0.3002755731574922</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007430762320445261</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2431117911480669</v>
       </c>
       <c r="K22">
-        <v>1.472125817430253</v>
+        <v>0.2109145080600001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.057432063318139</v>
+        <v>1.53579318614257</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.240622059777991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.068338010377758</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.095665085078707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.411764014059798</v>
+        <v>1.319717050320691</v>
       </c>
       <c r="C23">
-        <v>0.1641696353952966</v>
+        <v>0.2767968938930352</v>
       </c>
       <c r="D23">
-        <v>0.08404116359822922</v>
+        <v>0.1338159991003351</v>
       </c>
       <c r="E23">
-        <v>0.589436311192145</v>
+        <v>0.5792191227214118</v>
       </c>
       <c r="F23">
-        <v>0.793374794090056</v>
+        <v>0.4450755715449048</v>
       </c>
       <c r="G23">
-        <v>0.0007872088626359772</v>
+        <v>0.2957152023759235</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.006509264457026376</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2430507225156191</v>
       </c>
       <c r="K23">
-        <v>1.418890739532799</v>
+        <v>0.2124531465300237</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.016112823591058</v>
+        <v>1.48245477083529</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.19806342928365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.027547055861923</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.085747278069348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.20679733600727</v>
+        <v>1.136300508405014</v>
       </c>
       <c r="C24">
-        <v>0.1469039684189113</v>
+        <v>0.2456508838108391</v>
       </c>
       <c r="D24">
-        <v>0.07553975901235077</v>
+        <v>0.1166124844783525</v>
       </c>
       <c r="E24">
-        <v>0.4987860119225829</v>
+        <v>0.4913739154290298</v>
       </c>
       <c r="F24">
-        <v>0.7195821069404076</v>
+        <v>0.4100773858007187</v>
       </c>
       <c r="G24">
-        <v>0.0007939089056580744</v>
+        <v>0.2776393518712297</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003909789763715921</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2424884596805299</v>
       </c>
       <c r="K24">
-        <v>1.218363264339843</v>
+        <v>0.2173994271899886</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8618171717939802</v>
+        <v>1.283050158488749</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.047996884025338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8750164850197777</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.045774836340797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9878716654458799</v>
+        <v>0.9382243441604317</v>
       </c>
       <c r="C25">
-        <v>0.1283553079815363</v>
+        <v>0.2125534110507772</v>
       </c>
       <c r="D25">
-        <v>0.06634533606033699</v>
+        <v>0.09810243895995541</v>
       </c>
       <c r="E25">
-        <v>0.4049253025596187</v>
+        <v>0.4000890945595259</v>
       </c>
       <c r="F25">
-        <v>0.6465659758462721</v>
+        <v>0.3752478607584706</v>
       </c>
       <c r="G25">
-        <v>0.0008013804602262061</v>
+        <v>0.2606980157344694</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002016697677165169</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2434108944559839</v>
       </c>
       <c r="K25">
-        <v>1.003771525381126</v>
+        <v>0.2243013710753736</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6991511189876789</v>
+        <v>1.068464973125941</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.90707583154321</v>
+        <v>0.7130140674001879</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.011251827556521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7951006458486631</v>
+        <v>0.7866970299448042</v>
       </c>
       <c r="C2">
-        <v>0.1849906104723971</v>
+        <v>0.1903852242292032</v>
       </c>
       <c r="D2">
-        <v>0.08383341459680338</v>
+        <v>0.08638646480396517</v>
       </c>
       <c r="E2">
-        <v>0.3356542410775134</v>
+        <v>0.3339630526895547</v>
       </c>
       <c r="F2">
-        <v>0.3552017312941516</v>
+        <v>0.3389795855367765</v>
       </c>
       <c r="G2">
-        <v>0.2533349392593749</v>
+        <v>0.2204802861426316</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0006545001659570282</v>
+        <v>0.0008920410609061236</v>
       </c>
       <c r="J2">
-        <v>0.2469579734509466</v>
+        <v>0.2735836887912342</v>
       </c>
       <c r="K2">
-        <v>0.2331568403040976</v>
+        <v>0.2162995577200153</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1259730117385125</v>
       </c>
       <c r="M2">
-        <v>0.9074069647303986</v>
+        <v>0.04731763597632543</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5945944915523498</v>
+        <v>0.920290981491263</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.002649707451695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5979445445913285</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9513778248856397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6959489579242586</v>
+        <v>0.6914986330789077</v>
       </c>
       <c r="C3">
-        <v>0.1684938997474035</v>
+        <v>0.1693567053697222</v>
       </c>
       <c r="D3">
-        <v>0.07454193803137343</v>
+        <v>0.07628503087890692</v>
       </c>
       <c r="E3">
-        <v>0.2929068301689597</v>
+        <v>0.2916861113449158</v>
       </c>
       <c r="F3">
-        <v>0.3408656573166766</v>
+        <v>0.3271650395319412</v>
       </c>
       <c r="G3">
-        <v>0.2475585504361462</v>
+        <v>0.2172835703171216</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004234758887950996</v>
+        <v>0.0005727274084121881</v>
       </c>
       <c r="J3">
-        <v>0.2490884596697995</v>
+        <v>0.2746390329394188</v>
       </c>
       <c r="K3">
-        <v>0.2383954735696534</v>
+        <v>0.2224916712752218</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1313685597387781</v>
       </c>
       <c r="M3">
-        <v>0.8000578946625296</v>
+        <v>0.04777320435497767</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5154881669752172</v>
+        <v>0.8098806346526288</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9945645573257309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5181649552658385</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.949674330832238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6348216879124209</v>
+        <v>0.6327241864166524</v>
       </c>
       <c r="C4">
-        <v>0.1584778716119786</v>
+        <v>0.1566635127622362</v>
       </c>
       <c r="D4">
-        <v>0.06884335213133141</v>
+        <v>0.07010305891589041</v>
       </c>
       <c r="E4">
-        <v>0.2671415061771683</v>
+        <v>0.2661976348758088</v>
       </c>
       <c r="F4">
-        <v>0.3325547994933018</v>
+        <v>0.3203014487547904</v>
       </c>
       <c r="G4">
-        <v>0.2444338093725733</v>
+        <v>0.2157420303143027</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004500974175525307</v>
+        <v>0.0005173502667146224</v>
       </c>
       <c r="J4">
-        <v>0.2506874192682602</v>
+        <v>0.2754108939694575</v>
       </c>
       <c r="K4">
-        <v>0.2418920899163837</v>
+        <v>0.2265008777225983</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1348514234931404</v>
       </c>
       <c r="M4">
-        <v>0.7341312962923467</v>
+        <v>0.0485452840125431</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4672078009139184</v>
+        <v>0.7421246328620867</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9910961069436866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4694636171159416</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9498154369963174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6095274917491338</v>
+        <v>0.6083774058731706</v>
       </c>
       <c r="C5">
-        <v>0.1547765859879036</v>
+        <v>0.1519138468257779</v>
       </c>
       <c r="D5">
-        <v>0.06658875043848411</v>
+        <v>0.06765488805764619</v>
       </c>
       <c r="E5">
-        <v>0.2567061098179835</v>
+        <v>0.2558731908093534</v>
       </c>
       <c r="F5">
-        <v>0.3289287468345279</v>
+        <v>0.3172534691353235</v>
       </c>
       <c r="G5">
-        <v>0.2429248501715975</v>
+        <v>0.2148972856771465</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005673000882153723</v>
+        <v>0.0006068480348790928</v>
       </c>
       <c r="J5">
-        <v>0.2512323268571564</v>
+        <v>0.2755779114572974</v>
       </c>
       <c r="K5">
-        <v>0.2431131082750113</v>
+        <v>0.2279323397716464</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1361714469718773</v>
       </c>
       <c r="M5">
-        <v>0.7075802977861088</v>
+        <v>0.04893276030567417</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.447670756368538</v>
+        <v>0.7148389843441976</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9889576501345374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.449752728059984</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9491201500473068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6049323005929352</v>
+        <v>0.6039466073584094</v>
       </c>
       <c r="C6">
-        <v>0.1545995242143334</v>
+        <v>0.1515848930419281</v>
       </c>
       <c r="D6">
-        <v>0.06629606147701139</v>
+        <v>0.06733018164550231</v>
       </c>
       <c r="E6">
-        <v>0.2549247636681926</v>
+        <v>0.2541111822723394</v>
       </c>
       <c r="F6">
-        <v>0.3278970863904647</v>
+        <v>0.3163322959293424</v>
       </c>
       <c r="G6">
-        <v>0.2422691161236017</v>
+        <v>0.2143762045255073</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000677457686861338</v>
+        <v>0.0007285658136479967</v>
       </c>
       <c r="J6">
-        <v>0.251109984616626</v>
+        <v>0.2753902239542185</v>
       </c>
       <c r="K6">
-        <v>0.2429879606725702</v>
+        <v>0.2278650871383121</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1362208117073465</v>
       </c>
       <c r="M6">
-        <v>0.7035677440080121</v>
+        <v>0.04894305642245023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4445224848914506</v>
+        <v>0.71070222300186</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9872975740118335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4465742695716699</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9477540757562792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6334091018622701</v>
+        <v>0.6314498988152479</v>
       </c>
       <c r="C7">
-        <v>0.1596217629150942</v>
+        <v>0.1576731370006001</v>
       </c>
       <c r="D7">
-        <v>0.0690366911121032</v>
+        <v>0.07042998298403802</v>
       </c>
       <c r="E7">
-        <v>0.2668505070168763</v>
+        <v>0.2659246328324869</v>
       </c>
       <c r="F7">
-        <v>0.3313135562707004</v>
+        <v>0.3184433900567782</v>
       </c>
       <c r="G7">
-        <v>0.2432907942667839</v>
+        <v>0.2166576026639717</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0006774602262877849</v>
+        <v>0.000787082373021164</v>
       </c>
       <c r="J7">
-        <v>0.2501030192638609</v>
+        <v>0.2717220831671199</v>
       </c>
       <c r="K7">
-        <v>0.241003352582613</v>
+        <v>0.2253809127713868</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1342503907982202</v>
       </c>
       <c r="M7">
-        <v>0.7348617423707822</v>
+        <v>0.04830340703979186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4671966374540233</v>
+        <v>0.7426531566951553</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9874474786391403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4694068249783356</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.944359183199964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7595308841664803</v>
+        <v>0.7528864404641809</v>
       </c>
       <c r="C8">
-        <v>0.1808764033725225</v>
+        <v>0.1841769958597013</v>
       </c>
       <c r="D8">
-        <v>0.08092767848211224</v>
+        <v>0.08365988415079073</v>
       </c>
       <c r="E8">
-        <v>0.3206082533782677</v>
+        <v>0.319131865830002</v>
       </c>
       <c r="F8">
-        <v>0.3485788806039807</v>
+        <v>0.3311014410609516</v>
       </c>
       <c r="G8">
-        <v>0.2497724974582383</v>
+        <v>0.2245405046198741</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0008082265953097689</v>
+        <v>0.001072076740835648</v>
       </c>
       <c r="J8">
-        <v>0.2468549036196777</v>
+        <v>0.2631441527189367</v>
       </c>
       <c r="K8">
-        <v>0.2337175672267691</v>
+        <v>0.2163326559111756</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1267964047351704</v>
       </c>
       <c r="M8">
-        <v>0.8718515712772614</v>
+        <v>0.04680973753744055</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5675862637907727</v>
+        <v>0.883048882161745</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9947789140016994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5705646442795356</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.939473376931403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.006965966648693</v>
+        <v>0.9900857608347167</v>
       </c>
       <c r="C9">
-        <v>0.2214258333842167</v>
+        <v>0.2363949297590864</v>
       </c>
       <c r="D9">
-        <v>0.1039194322711765</v>
+        <v>0.1088904223245493</v>
       </c>
       <c r="E9">
-        <v>0.4307058152339422</v>
+        <v>0.4279841368820385</v>
       </c>
       <c r="F9">
-        <v>0.3887455283950771</v>
+        <v>0.363731451696701</v>
       </c>
       <c r="G9">
-        <v>0.2680819305866535</v>
+        <v>0.2381932960178901</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002169251867615962</v>
+        <v>0.002423677660495116</v>
       </c>
       <c r="J9">
-        <v>0.2439443854027061</v>
+        <v>0.2592446223068876</v>
       </c>
       <c r="K9">
-        <v>0.2233574612451825</v>
+        <v>0.2028658073705394</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1148247827892135</v>
       </c>
       <c r="M9">
-        <v>1.138690781378244</v>
+        <v>0.04848297590745076</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7668454419948674</v>
+        <v>1.157608648370683</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.028208484915865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7713873404724794</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9532611068782728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.187311749825739</v>
+        <v>1.163125121371024</v>
       </c>
       <c r="C10">
-        <v>0.25268101495287</v>
+        <v>0.2757266493509292</v>
       </c>
       <c r="D10">
-        <v>0.1210201456416939</v>
+        <v>0.1285533377463395</v>
       </c>
       <c r="E10">
-        <v>0.515080219251864</v>
+        <v>0.5114362219468589</v>
       </c>
       <c r="F10">
-        <v>0.4206336676592173</v>
+        <v>0.3856888503586617</v>
       </c>
       <c r="G10">
-        <v>0.2835489653549672</v>
+        <v>0.262376570299125</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004317489118814244</v>
+        <v>0.004392672882755022</v>
       </c>
       <c r="J10">
-        <v>0.2431466710189625</v>
+        <v>0.2406753308137439</v>
       </c>
       <c r="K10">
-        <v>0.2168874956350173</v>
+        <v>0.192166410346438</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.106192718849762</v>
       </c>
       <c r="M10">
-        <v>1.335866620172396</v>
+        <v>0.05136657777437392</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9159097268868663</v>
+        <v>1.359535836544552</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.059812428461484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9212299292641575</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9575789273628885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267397509440002</v>
+        <v>1.240979435930143</v>
       </c>
       <c r="C11">
-        <v>0.2691985085122326</v>
+        <v>0.2942362894811765</v>
       </c>
       <c r="D11">
-        <v>0.1292140548962948</v>
+        <v>0.1394664411829609</v>
       </c>
       <c r="E11">
-        <v>0.5541962010754204</v>
+        <v>0.5502601107131539</v>
       </c>
       <c r="F11">
-        <v>0.433953138286121</v>
+        <v>0.3877097419785187</v>
       </c>
       <c r="G11">
-        <v>0.2894278864794373</v>
+        <v>0.294833886370391</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.005908163196565397</v>
+        <v>0.005902310510857767</v>
       </c>
       <c r="J11">
-        <v>0.2422416012382484</v>
+        <v>0.2080361905765287</v>
       </c>
       <c r="K11">
-        <v>0.2129107994297783</v>
+        <v>0.1836328709264095</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1012172290411737</v>
       </c>
       <c r="M11">
-        <v>1.427668797216342</v>
+        <v>0.05146548240759508</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9848816458945109</v>
+        <v>1.451592678354615</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.070593276007472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.990040816733945</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9364446333204626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.298670957876823</v>
+        <v>1.271519367813909</v>
       </c>
       <c r="C12">
-        <v>0.2744005921018129</v>
+        <v>0.2998606782833804</v>
       </c>
       <c r="D12">
-        <v>0.1321193385688844</v>
+        <v>0.1436069513370484</v>
       </c>
       <c r="E12">
-        <v>0.569301208224843</v>
+        <v>0.5652668205682048</v>
       </c>
       <c r="F12">
-        <v>0.4401391462812256</v>
+        <v>0.3886680232078774</v>
       </c>
       <c r="G12">
-        <v>0.2927148336010532</v>
+        <v>0.3116241027654354</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.006367107409929851</v>
+        <v>0.006274248268390181</v>
       </c>
       <c r="J12">
-        <v>0.2424560632552826</v>
+        <v>0.1951137983133435</v>
       </c>
       <c r="K12">
-        <v>0.2122182258395284</v>
+        <v>0.1807582847875011</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09951341447607298</v>
       </c>
       <c r="M12">
-        <v>1.461486737418397</v>
+        <v>0.05167000847747616</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.010903555839924</v>
+        <v>1.485269333566436</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.078090228490311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.015935853552584</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9290841640207788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.292130412550847</v>
+        <v>1.26512441275608</v>
       </c>
       <c r="C13">
-        <v>0.2730574620834716</v>
+        <v>0.2984186521122751</v>
       </c>
       <c r="D13">
-        <v>0.1314523811904991</v>
+        <v>0.1426629113189506</v>
       </c>
       <c r="E13">
-        <v>0.566067399047931</v>
+        <v>0.5620528002121574</v>
       </c>
       <c r="F13">
-        <v>0.4390078806055868</v>
+        <v>0.388684774568631</v>
       </c>
       <c r="G13">
-        <v>0.292195003087663</v>
+        <v>0.308033222474549</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.006226595417036407</v>
+        <v>0.00614360228976718</v>
       </c>
       <c r="J13">
-        <v>0.2425069306720857</v>
+        <v>0.1979608054890321</v>
       </c>
       <c r="K13">
-        <v>0.2125157979781633</v>
+        <v>0.1815141500517328</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09992226885852951</v>
       </c>
       <c r="M13">
-        <v>1.454001652999182</v>
+        <v>0.05168468483108413</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.005249139807361</v>
+        <v>1.477826185622177</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.077077621070273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.010312413051857</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9313134395948026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270053082607973</v>
+        <v>1.243569270321814</v>
       </c>
       <c r="C14">
-        <v>0.2695318490898444</v>
+        <v>0.2946011625033265</v>
       </c>
       <c r="D14">
-        <v>0.1294355561509661</v>
+        <v>0.1397847099726448</v>
       </c>
       <c r="E14">
-        <v>0.555446938415507</v>
+        <v>0.5515021603567902</v>
       </c>
       <c r="F14">
-        <v>0.4345473360376317</v>
+        <v>0.3878845791817582</v>
       </c>
       <c r="G14">
-        <v>0.2897781055167385</v>
+        <v>0.2962215350648236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.005927859058125762</v>
+        <v>0.005911049731333939</v>
       </c>
       <c r="J14">
-        <v>0.2423004350112308</v>
+        <v>0.2070064161453757</v>
       </c>
       <c r="K14">
-        <v>0.2129168338077037</v>
+        <v>0.1834553151006695</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1010953837926785</v>
       </c>
       <c r="M14">
-        <v>1.430365321388592</v>
+        <v>0.05150727301026237</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9870010568134191</v>
+        <v>1.454282722699702</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.071465504548598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9921514151071378</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9361167349070882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.256146580984648</v>
+        <v>1.230012868959619</v>
       </c>
       <c r="C15">
-        <v>0.2678125486941383</v>
+        <v>0.2927094798032783</v>
       </c>
       <c r="D15">
-        <v>0.1282815580361927</v>
+        <v>0.1381332827899371</v>
       </c>
       <c r="E15">
-        <v>0.5489103994605173</v>
+        <v>0.5450117508770944</v>
       </c>
       <c r="F15">
-        <v>0.4314242640889674</v>
+        <v>0.3869193905579991</v>
       </c>
       <c r="G15">
-        <v>0.2879316436442423</v>
+        <v>0.2890988888227213</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.005833014223771471</v>
+        <v>0.005874360588921768</v>
       </c>
       <c r="J15">
-        <v>0.2419851994975275</v>
+        <v>0.2123532299531803</v>
       </c>
       <c r="K15">
-        <v>0.2128726375461021</v>
+        <v>0.1843585230081963</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1017255614687596</v>
       </c>
       <c r="M15">
-        <v>1.416286015540834</v>
+        <v>0.05127959412016914</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9759276237709003</v>
+        <v>1.440227481196331</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.066856519159373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9811212125175857</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9376847441192808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.178865534626254</v>
+        <v>1.154937981273406</v>
       </c>
       <c r="C16">
-        <v>0.2552505614033436</v>
+        <v>0.2784560533558817</v>
       </c>
       <c r="D16">
-        <v>0.1211625210912786</v>
+        <v>0.128558692471799</v>
       </c>
       <c r="E16">
-        <v>0.5121025837818749</v>
+        <v>0.5084903639509122</v>
       </c>
       <c r="F16">
-        <v>0.4163505525649143</v>
+        <v>0.3822563915738897</v>
       </c>
       <c r="G16">
-        <v>0.2799728027372979</v>
+        <v>0.2576197925281747</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004863907601848183</v>
+        <v>0.005092322258569482</v>
       </c>
       <c r="J16">
-        <v>0.2415512792028593</v>
+        <v>0.2411888216351201</v>
       </c>
       <c r="K16">
-        <v>0.2146336883212747</v>
+        <v>0.1905296098642282</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1057532749697767</v>
       </c>
       <c r="M16">
-        <v>1.333171506939919</v>
+        <v>0.05046720900365465</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9121549385545578</v>
+        <v>1.356782314816428</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.048875969335171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9174676679950551</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9492904621239688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.131439826876743</v>
+        <v>1.109092537179521</v>
       </c>
       <c r="C17">
-        <v>0.2475902186862413</v>
+        <v>0.2693524302589907</v>
       </c>
       <c r="D17">
-        <v>0.116800463024191</v>
+        <v>0.1230349883888096</v>
       </c>
       <c r="E17">
-        <v>0.4897890161771983</v>
+        <v>0.4863780058334157</v>
       </c>
       <c r="F17">
-        <v>0.4073142650670647</v>
+        <v>0.3780958757105566</v>
       </c>
       <c r="G17">
-        <v>0.2752746039312512</v>
+        <v>0.2437795005243117</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004345861635493442</v>
+        <v>0.00466812536411787</v>
       </c>
       <c r="J17">
-        <v>0.241393876046871</v>
+        <v>0.2550213275193371</v>
       </c>
       <c r="K17">
-        <v>0.215823804733116</v>
+        <v>0.1938102328990539</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1081151141139749</v>
       </c>
       <c r="M17">
-        <v>1.282233909308985</v>
+        <v>0.04982885049352426</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8732322581341023</v>
+        <v>1.305229183090091</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.038462045773343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8785026355450114</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9526789002311489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.105122527962436</v>
+        <v>1.083733327711741</v>
       </c>
       <c r="C18">
-        <v>0.2420933231923925</v>
+        <v>0.262784967413296</v>
       </c>
       <c r="D18">
-        <v>0.1140884646029576</v>
+        <v>0.1197709310602733</v>
       </c>
       <c r="E18">
-        <v>0.4771807272647663</v>
+        <v>0.4738911091855087</v>
       </c>
       <c r="F18">
-        <v>0.4032283488551158</v>
+        <v>0.3762190546885691</v>
       </c>
       <c r="G18">
-        <v>0.2736064980790616</v>
+        <v>0.2384990664062911</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003840882706104054</v>
+        <v>0.00415753067272906</v>
       </c>
       <c r="J18">
-        <v>0.2418458485062089</v>
+        <v>0.2615772183765372</v>
       </c>
       <c r="K18">
-        <v>0.2173091372718865</v>
+        <v>0.1961778252388982</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1096726582922294</v>
       </c>
       <c r="M18">
-        <v>1.25195519789213</v>
+        <v>0.0496772887829362</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8506898521327813</v>
+        <v>1.274453285963062</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.035800068770257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8558984876326505</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9561711912226514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.095463486249287</v>
+        <v>1.074433096185317</v>
       </c>
       <c r="C19">
-        <v>0.2410878547716209</v>
+        <v>0.2614681611377279</v>
       </c>
       <c r="D19">
-        <v>0.1133284272127355</v>
+        <v>0.1188455942557169</v>
       </c>
       <c r="E19">
-        <v>0.4728239025244463</v>
+        <v>0.4695792812902795</v>
       </c>
       <c r="F19">
-        <v>0.4010575902733748</v>
+        <v>0.3747540342895164</v>
       </c>
       <c r="G19">
-        <v>0.2723050205004824</v>
+        <v>0.236300719057958</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003851506122186876</v>
+        <v>0.004204937169503431</v>
       </c>
       <c r="J19">
-        <v>0.2416169550814615</v>
+        <v>0.2630905640567178</v>
       </c>
       <c r="K19">
-        <v>0.2172309432438908</v>
+        <v>0.196437075660949</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1100021794813717</v>
       </c>
       <c r="M19">
-        <v>1.242474620163534</v>
+        <v>0.04942015128835564</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8432407858684314</v>
+        <v>1.264777927725873</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.032537047062206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8484198447716409</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9549136057995895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.136565189974846</v>
+        <v>1.114039325061867</v>
       </c>
       <c r="C20">
-        <v>0.2483169625290884</v>
+        <v>0.2702401311953082</v>
       </c>
       <c r="D20">
-        <v>0.1172485346387191</v>
+        <v>0.123594032112706</v>
       </c>
       <c r="E20">
-        <v>0.4921651678610317</v>
+        <v>0.4887315653229649</v>
       </c>
       <c r="F20">
-        <v>0.408349732281593</v>
+        <v>0.3786630998618961</v>
       </c>
       <c r="G20">
-        <v>0.2758439162621826</v>
+        <v>0.2451356564530229</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00437959647579067</v>
+        <v>0.004688419783820841</v>
       </c>
       <c r="J20">
-        <v>0.2414460495649067</v>
+        <v>0.2537695701938389</v>
       </c>
       <c r="K20">
-        <v>0.2157526764540734</v>
+        <v>0.1935316005211689</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1078871685164042</v>
       </c>
       <c r="M20">
-        <v>1.287576255319323</v>
+        <v>0.04992185844760577</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8773509518471485</v>
+        <v>1.310652500553772</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.03979153535208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8826302483619983</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9526813093315809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.275449879881592</v>
+        <v>1.249246841776056</v>
       </c>
       <c r="C21">
-        <v>0.2718080134856962</v>
+        <v>0.2963727628000044</v>
       </c>
       <c r="D21">
-        <v>0.1302578384521098</v>
+        <v>0.1414019808472204</v>
       </c>
       <c r="E21">
-        <v>0.5584119442172195</v>
+        <v>0.5545026650071918</v>
       </c>
       <c r="F21">
-        <v>0.4346979190358908</v>
+        <v>0.3846964601665874</v>
       </c>
       <c r="G21">
-        <v>0.2894053764432556</v>
+        <v>0.3067234393695912</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00624999480094246</v>
+        <v>0.006257608011826399</v>
       </c>
       <c r="J21">
-        <v>0.2418002095215641</v>
+        <v>0.1967983419175141</v>
       </c>
       <c r="K21">
-        <v>0.2119514798431759</v>
+        <v>0.1812228723735743</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1002036009993219</v>
       </c>
       <c r="M21">
-        <v>1.438426950622556</v>
+        <v>0.05084046292803635</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9926062232459003</v>
+        <v>1.461646047334312</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.069644285573418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9975654279688797</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9247955331424862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.367567126607298</v>
+        <v>1.33907360443169</v>
       </c>
       <c r="C22">
-        <v>0.2857482209374922</v>
+        <v>0.3116889668623912</v>
       </c>
       <c r="D22">
-        <v>0.1384880634827397</v>
+        <v>0.1530969881055455</v>
       </c>
       <c r="E22">
-        <v>0.6028478728162696</v>
+        <v>0.5986270521131445</v>
       </c>
       <c r="F22">
-        <v>0.4541131283331552</v>
+        <v>0.389502434969117</v>
       </c>
       <c r="G22">
-        <v>0.3002755731574922</v>
+        <v>0.3562174039818871</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007430762320445261</v>
+        <v>0.007115991802152166</v>
       </c>
       <c r="J22">
-        <v>0.2431117911480669</v>
+        <v>0.1678628627913916</v>
       </c>
       <c r="K22">
-        <v>0.2109145080600001</v>
+        <v>0.1740141550508483</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09574081326945461</v>
       </c>
       <c r="M22">
-        <v>1.53579318614257</v>
+        <v>0.05196216124341113</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.068338010377758</v>
+        <v>1.558822449243365</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.095665085078707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.072963718152714</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9093626698565629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.319717050320691</v>
+        <v>1.292107479847544</v>
       </c>
       <c r="C23">
-        <v>0.2767968938930352</v>
+        <v>0.3023824773146089</v>
       </c>
       <c r="D23">
-        <v>0.1338159991003351</v>
+        <v>0.146155979118646</v>
       </c>
       <c r="E23">
-        <v>0.5792191227214118</v>
+        <v>0.5751228906642467</v>
       </c>
       <c r="F23">
-        <v>0.4450755715449048</v>
+        <v>0.3898972883930796</v>
       </c>
       <c r="G23">
-        <v>0.2957152023759235</v>
+        <v>0.3244715522554884</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.006509264457026376</v>
+        <v>0.006316351416057131</v>
       </c>
       <c r="J23">
-        <v>0.2430507225156191</v>
+        <v>0.187048428742667</v>
       </c>
       <c r="K23">
-        <v>0.2124531465300237</v>
+        <v>0.1793634409332974</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09857591705510416</v>
       </c>
       <c r="M23">
-        <v>1.48245477083529</v>
+        <v>0.05201155360395759</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.027547055861923</v>
+        <v>1.506081259596897</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.085747278069348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.032480207939876</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9261178353990118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136300508405014</v>
+        <v>1.113795160789351</v>
       </c>
       <c r="C24">
-        <v>0.2456508838108391</v>
+        <v>0.2672949276719834</v>
       </c>
       <c r="D24">
-        <v>0.1166124844783525</v>
+        <v>0.1229011904202935</v>
       </c>
       <c r="E24">
-        <v>0.4913739154290298</v>
+        <v>0.4879437811701237</v>
       </c>
       <c r="F24">
-        <v>0.4100773858007187</v>
+        <v>0.3804686771682881</v>
       </c>
       <c r="G24">
-        <v>0.2776393518712297</v>
+        <v>0.2464484311649784</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003909789763715921</v>
+        <v>0.004121384306226439</v>
       </c>
       <c r="J24">
-        <v>0.2424884596805299</v>
+        <v>0.255293930240228</v>
       </c>
       <c r="K24">
-        <v>0.2173994271899886</v>
+        <v>0.1950558477953805</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1084986872077085</v>
       </c>
       <c r="M24">
-        <v>1.283050158488749</v>
+        <v>0.05043383092937148</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8750164850197777</v>
+        <v>1.306095816113952</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.045774836340797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8802974812176316</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9587456122031739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9382243441604317</v>
+        <v>0.9240878104573369</v>
       </c>
       <c r="C25">
-        <v>0.2125534110507772</v>
+        <v>0.2247146318169939</v>
       </c>
       <c r="D25">
-        <v>0.09810243895995541</v>
+        <v>0.1022587597382696</v>
       </c>
       <c r="E25">
-        <v>0.4000890945595259</v>
+        <v>0.3977046745556763</v>
       </c>
       <c r="F25">
-        <v>0.3752478607584706</v>
+        <v>0.3534302351882914</v>
       </c>
       <c r="G25">
-        <v>0.2606980157344694</v>
+        <v>0.229316165772687</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002016697677165169</v>
+        <v>0.002389597088900963</v>
       </c>
       <c r="J25">
-        <v>0.2434108944559839</v>
+        <v>0.2633870691754012</v>
       </c>
       <c r="K25">
-        <v>0.2243013710753736</v>
+        <v>0.2053104288242498</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1174980114510831</v>
       </c>
       <c r="M25">
-        <v>1.068464973125941</v>
+        <v>0.047258313342045</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7130140674001879</v>
+        <v>1.085516995897336</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.011251827556521</v>
+        <v>0.7172033687255208</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9451376595672798</v>
       </c>
     </row>
   </sheetData>
